--- a/data_excel/518.xlsx
+++ b/data_excel/518.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -118,7 +118,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=</t>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/data_excel/518.xlsx
+++ b/data_excel/518.xlsx
@@ -118,7 +118,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+</t>
+    <t>=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
